--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,110 +1690,6 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>36764.07637731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>36764.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>37.26</v>
+        <v>3.73</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>36764.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.09</v>
+        <v>0.71</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.34999999999999</v>
+        <v>7.23</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.35</v>
+        <v>0.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.85</v>
+        <v>0.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.25</v>
+        <v>0.63</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>36764.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.25</v>
+        <v>1.93</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.3</v>
+        <v>2.63</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.13</v>
+        <v>10.11</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AH4" s="4" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>36764.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>18.01</v>
+        <v>1.8</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.49</v>
+        <v>3.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.01</v>
+        <v>1.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.82</v>
+        <v>0.88</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.85</v>
+        <v>0.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>11.27</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>112.66</v>
-      </c>
       <c r="U5" s="4" t="n">
-        <v>21.75</v>
+        <v>2.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.279999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.67</v>
+        <v>2.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>36764.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.75</v>
+        <v>2.48</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>20.63</v>
+        <v>2.06</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>129.86</v>
+        <v>12.99</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>24.97</v>
+        <v>2.5</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>31.74</v>
+        <v>3.17</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>36764.04166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>32.97</v>
+        <v>3.3</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>118.45</v>
+        <v>11.85</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>22.94</v>
+        <v>2.29</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>29.95</v>
+        <v>2.99</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>36764.04861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>95.58</v>
+        <v>9.56</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>25.1</v>
+        <v>2.51</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>36764.05555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>15.48</v>
+        <v>1.55</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>26.9</v>
+        <v>2.69</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.55</v>
+        <v>0.76</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>95.59</v>
+        <v>9.56</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>24.39</v>
+        <v>2.44</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>36764.0625</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>72.70999999999999</v>
+        <v>7.27</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>19.83</v>
+        <v>1.98</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44042.21597222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.64</v>
+        <v>46.43</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.84</v>
+        <v>38.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.29</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.3</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.45</v>
+        <v>14.52</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.59</v>
+        <v>255.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.81</v>
+        <v>48.15</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.19</v>
+        <v>31.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.66</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.86</v>
+        <v>28.59</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.69</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.07</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.06</v>
+        <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44042.22291666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.8</v>
+        <v>38.01</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.14</v>
+        <v>31.44</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.5</v>
+        <v>54.97</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.09</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.97</v>
+        <v>19.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>20.44</v>
+        <v>204.42</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.89</v>
+        <v>38.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.59</v>
+        <v>25.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.96</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.97</v>
+        <v>49.69</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44042.22986111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44042.23680555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.21</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.41</v>
+        <v>14.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,88 +658,88 @@
         <v>22.1</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.16</v>
+        <v>15.162</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>4.209</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.43</v>
+        <v>46.427</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.4</v>
+        <v>38.398</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.39</v>
+        <v>17.391</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.34</v>
+        <v>57.345</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.76</v>
+        <v>26.759</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.34</v>
+        <v>11.337</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.44</v>
+        <v>18.439</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.3</v>
+        <v>19.302</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.55</v>
+        <v>5.553</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.29</v>
+        <v>17.294</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.3</v>
+        <v>24.297</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.52</v>
+        <v>14.517</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.76</v>
+        <v>3.762</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>2.458</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>255.89</v>
+        <v>255.893</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.15</v>
+        <v>48.146</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.96</v>
+        <v>15.963</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.89</v>
+        <v>31.894</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.66</v>
+        <v>16.657</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.02</v>
+        <v>2.022</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.59</v>
+        <v>28.586</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>14.1</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.69</v>
+        <v>12.689</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.848</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.07</v>
+        <v>19.074</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
@@ -748,10 +748,10 @@
         <v>50.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.856</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.96</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="3">
@@ -759,64 +759,64 @@
         <v>44042.22291666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.66</v>
+        <v>12.662</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.863</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>38.01</v>
+        <v>38.014</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.44</v>
+        <v>31.445</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>54.97</v>
+        <v>54.968</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.35</v>
+        <v>9.349</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.09</v>
+        <v>14.094</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>15.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.99</v>
+        <v>15.995</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.47</v>
+        <v>4.469</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.66</v>
+        <v>19.661</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.86</v>
+        <v>11.858</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.63</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>204.42</v>
+        <v>204.422</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.94</v>
+        <v>38.942</v>
       </c>
       <c r="V3" s="4" t="n">
         <v>12.84</v>
@@ -825,37 +825,37 @@
         <v>25.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.81</v>
+        <v>13.815</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>26.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.21</v>
+        <v>10.215</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>11.97</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.96</v>
+        <v>15.961</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>49.69</v>
+        <v>49.689</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.14</v>
+        <v>7.142</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44042.22986111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.21</v>
+        <v>14.206</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.754</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.29</v>
+        <v>5.294</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.96</v>
+        <v>24.963</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.47</v>
+        <v>3.474</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.2</v>
+        <v>5.195</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.8</v>
+        <v>5.797</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>5.95</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.696</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.4</v>
+        <v>7.402</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.65</v>
+        <v>4.646</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.528</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.819</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.91</v>
+        <v>14.915</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>9.779999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.31</v>
+        <v>5.306</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.549</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.44</v>
+        <v>11.442</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>3.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.62</v>
+        <v>4.623</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.7</v>
+        <v>22.699</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.63</v>
+        <v>2.629</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.24375</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44042.23680555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.324</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.702</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.09</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.517</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.403</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.59</v>
+        <v>15.589</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.236</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.21</v>
+        <v>2.207</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.29</v>
+        <v>3.292</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.75</v>
+        <v>3.751</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.8</v>
+        <v>3.803</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.73</v>
+        <v>4.727</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.04</v>
+        <v>3.043</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.354</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.18</v>
+        <v>44.183</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>9.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.44</v>
+        <v>3.441</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.1</v>
+        <v>7.102</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.57</v>
+        <v>2.572</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3</v>
+        <v>2.998</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>14.053</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44042.24375</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.91</v>
+      <c r="S6" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_28.xlsx
+++ b/DATA_goal/Junction_Flooding_28.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44042.23680555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.324</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.702</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.087999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.517</v>
+        <v>7.52</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.403</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.589</v>
+        <v>15.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.236</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.207</v>
+        <v>2.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.292</v>
+        <v>3.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.751</v>
+        <v>3.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.803</v>
+        <v>3.8</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>1.09</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.727</v>
+        <v>4.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.043</v>
+        <v>3.04</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.183</v>
+        <v>44.18</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>9.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.218</v>
+        <v>6.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.441</v>
+        <v>3.44</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.102</v>
+        <v>7.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.572</v>
+        <v>2.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.998</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.865</v>
+        <v>3.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.053</v>
+        <v>14.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.664</v>
+        <v>1.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.906</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.24375</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.88</v>
+        <v>3.91</v>
       </c>
     </row>
   </sheetData>
